--- a/antibody validation list/antibody validation results.xlsx
+++ b/antibody validation list/antibody validation results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9775220ff73936ab/Documents/GitHub/AutoCIF/antibody validation list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\antibody validation list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0EEEBC-BE0B-4350-97C5-852F7C861471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14EADC-2916-441D-BAE4-CD96700901E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9B263FA-CF30-47FB-8F69-C57DB2BB2547}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9B263FA-CF30-47FB-8F69-C57DB2BB2547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Antigen</t>
   </si>
@@ -119,18 +119,12 @@
     <t>conditions</t>
   </si>
   <si>
-    <t>antigen retrevial</t>
-  </si>
-  <si>
     <t>blocking</t>
   </si>
   <si>
     <t>[C]</t>
   </si>
   <si>
-    <t>citric acid + 100C heat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intercept proteinless </t>
   </si>
   <si>
@@ -153,6 +147,39 @@
   </si>
   <si>
     <t>DY555</t>
+  </si>
+  <si>
+    <t>Time at peak Temp</t>
+  </si>
+  <si>
+    <t>3 minutes</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>Heating Device</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>antigen retrevial Buffer</t>
+  </si>
+  <si>
+    <t>Tris-EDTA pH 9.0 + Tween</t>
+  </si>
+  <si>
+    <t>Citric acid pH 6.0 + Tween</t>
+  </si>
+  <si>
+    <t>work in condition 2</t>
+  </si>
+  <si>
+    <t>Notes on condition 2</t>
+  </si>
+  <si>
+    <t>not used</t>
   </si>
 </sst>
 </file>
@@ -521,23 +548,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5121051-FBB2-4EC3-AE8A-CE5F23B6F81D}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,17 +583,21 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -575,11 +610,14 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -592,10 +630,13 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -606,8 +647,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -620,8 +664,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -634,8 +681,11 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -648,8 +698,11 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -662,10 +715,13 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -676,8 +732,11 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -688,10 +747,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -704,11 +766,14 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -721,11 +786,14 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -738,33 +806,68 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/antibody validation list/antibody validation results.xlsx
+++ b/antibody validation list/antibody validation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Documents\GitHub\AutoCIF\antibody validation list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA14EADC-2916-441D-BAE4-CD96700901E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A8248C-4EE5-4CA5-B4E7-4A3F9DC52B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9B263FA-CF30-47FB-8F69-C57DB2BB2547}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>Antigen</t>
   </si>
@@ -180,6 +180,33 @@
   </si>
   <si>
     <t>not used</t>
+  </si>
+  <si>
+    <t>weak, but noticable</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>maybe, very weak</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -551,7 +578,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +641,10 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -633,6 +663,15 @@
       <c r="E3" t="s">
         <v>31</v>
       </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -650,6 +689,12 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -667,6 +712,15 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -684,6 +738,9 @@
       <c r="E6" t="s">
         <v>47</v>
       </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -701,6 +758,15 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -718,6 +784,9 @@
       <c r="E8" t="s">
         <v>47</v>
       </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -735,6 +804,15 @@
       <c r="E9" t="s">
         <v>31</v>
       </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -752,6 +830,12 @@
       <c r="E10" t="s">
         <v>31</v>
       </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -770,7 +854,13 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -790,7 +880,13 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -808,6 +904,15 @@
       </c>
       <c r="E13" t="s">
         <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
